--- a/ocms/src/test/resources/TestData/RoleAccessReportData.xlsx
+++ b/ocms/src/test/resources/TestData/RoleAccessReportData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C723DF0E-42C1-4A88-A4CF-649D841A4A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E531922C-08A4-449D-BB18-910BF72E09FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,13 +113,13 @@
     <t>checker</t>
   </si>
   <si>
-    <t>Country_Maker</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>r</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>OCM Maker</t>
+  </si>
+  <si>
+    <t>OCM</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -528,7 +528,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
